--- a/$BMBL.xlsx
+++ b/$BMBL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36E7ACE-A293-4DC7-8CFC-40B2551ADDB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC38EFF5-D298-4130-902A-83D433AA144A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7262DCEC-3A26-4705-BC25-0BF37D9C2A83}"/>
+    <workbookView xWindow="0" yWindow="1860" windowWidth="26610" windowHeight="12885" xr2:uid="{7262DCEC-3A26-4705-BC25-0BF37D9C2A83}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -60,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="151">
   <si>
     <t>$BMBL</t>
   </si>
@@ -194,15 +203,6 @@
     <t>Q121</t>
   </si>
   <si>
-    <t>FY18</t>
-  </si>
-  <si>
-    <t>FY19</t>
-  </si>
-  <si>
-    <t>FY20</t>
-  </si>
-  <si>
     <t>FY21</t>
   </si>
   <si>
@@ -426,9 +426,6 @@
   </si>
   <si>
     <t>Bumble for Friends</t>
-  </si>
-  <si>
-    <t>Fruiz</t>
   </si>
   <si>
     <t xml:space="preserve">Official </t>
@@ -533,9 +530,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.0\x"/>
-    <numFmt numFmtId="174" formatCode="yy"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0\x"/>
+    <numFmt numFmtId="167" formatCode="yy"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -753,19 +750,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -777,7 +765,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -791,20 +779,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -816,12 +801,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -852,54 +831,25 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -909,14 +859,60 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1005,13 +1001,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -1356,7 +1352,7 @@
   <dimension ref="A2:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1376,619 +1372,619 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="G5" s="3" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="59"/>
+      <c r="G5" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="5"/>
-      <c r="T5" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="U5" s="5"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="59"/>
+      <c r="T5" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="U5" s="59"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="18">
         <v>10.68</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="18"/>
-      <c r="S6" s="34">
+      <c r="D6" s="5"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="15"/>
+      <c r="S6" s="28">
         <v>2014</v>
       </c>
-      <c r="T6" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="U6" s="18"/>
+      <c r="T6" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="U6" s="15"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11">
-        <f>+'Financial Model'!W20</f>
+      <c r="C7" s="8">
+        <f>+'Financial Model'!T20</f>
         <v>134.936824</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="51">
         <v>45108</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="18"/>
-      <c r="S7" s="34">
+      <c r="H7" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15"/>
+      <c r="S7" s="28">
         <v>2006</v>
       </c>
-      <c r="T7" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="U7" s="18"/>
-      <c r="V7" s="34" t="s">
-        <v>125</v>
+      <c r="T7" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="U7" s="15"/>
+      <c r="V7" s="28" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="8">
         <f>C6*C7</f>
         <v>1441.12528032</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="18"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="18"/>
+      <c r="D8" s="6"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="15"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="15"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="11">
-        <f>+'Financial Model'!W76</f>
+      <c r="C9" s="8">
+        <f>+'Financial Model'!T76</f>
         <v>355.642</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="18"/>
-      <c r="T9" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="U9" s="18"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="15"/>
+      <c r="T9" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="U9" s="15"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11">
-        <f>+'Financial Model'!W77</f>
+      <c r="C10" s="8">
+        <f>+'Financial Model'!T77</f>
         <v>620.92600000000004</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="51">
         <v>45017</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="18"/>
-      <c r="S10" s="34">
+      <c r="H10" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="15"/>
+      <c r="S10" s="28">
         <v>2014</v>
       </c>
-      <c r="T10" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="U10" s="18"/>
+      <c r="T10" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="U10" s="15"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="8">
         <f>C9-C10</f>
         <v>-265.28400000000005</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="18"/>
-      <c r="S11" s="34">
+      <c r="G11" s="12"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15"/>
+      <c r="S11" s="28">
         <v>2023</v>
       </c>
-      <c r="T11" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="U11" s="18"/>
-      <c r="V11" s="70" t="s">
-        <v>151</v>
+      <c r="T11" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="U11" s="15"/>
+      <c r="V11" s="53" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="9">
         <f>C8-C11</f>
         <v>1706.4092803200001</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="18"/>
-      <c r="S12" s="34">
+      <c r="D12" s="7"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="15"/>
+      <c r="S12" s="28">
         <v>2006</v>
       </c>
-      <c r="T12" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="U12" s="18"/>
-      <c r="V12" s="70" t="s">
+      <c r="T12" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="U12" s="15"/>
+      <c r="V12" s="53" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G13" s="12"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="15"/>
+      <c r="S13" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="T13" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="U13" s="15"/>
+      <c r="V13" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G14" s="12"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="15"/>
+      <c r="S14" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="T14" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="U14" s="17"/>
+      <c r="V14" s="53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B15" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="65"/>
+      <c r="D15" s="59"/>
+      <c r="G15" s="51">
+        <v>44562</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="56">
+        <f ca="1">TODAY()-DATE(1989, 7, 1)</f>
+        <v>12671</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G13" s="15"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="18"/>
-      <c r="S13" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="T13" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="U13" s="18"/>
-      <c r="V13" s="1" t="s">
+      <c r="C16" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="15"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="15"/>
+      <c r="T17" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="U17" s="59"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="69" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G14" s="15"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="18"/>
-      <c r="S14" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="T14" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="U14" s="20"/>
-      <c r="V14" s="70" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="G15" s="68">
-        <v>44562</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="18"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="73">
-        <f ca="1">TODAY()-DATE(1989, 7, 1)</f>
-        <v>12668</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="D18" s="70"/>
+      <c r="E18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="15"/>
+      <c r="T18" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="U18" s="15"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="64"/>
+      <c r="E19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="15"/>
+      <c r="T19" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="74" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="76" t="s">
-        <v>154</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="18"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="18"/>
-      <c r="T17" s="3" t="s">
+      <c r="U19" s="15"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="G20" s="12"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="15"/>
+      <c r="T20" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="U20" s="15"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="G21" s="12"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="15"/>
+      <c r="T21" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="U21" s="15"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B22" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="65"/>
+      <c r="D22" s="59"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="17"/>
+      <c r="T22" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="U22" s="15"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="61"/>
+      <c r="T23" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="U17" s="5"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="18"/>
-      <c r="T18" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="U18" s="18"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="57" t="s">
+      <c r="U23" s="15"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="62">
+        <v>2006</v>
+      </c>
+      <c r="D24" s="61"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="15"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="66">
+        <v>44228</v>
+      </c>
+      <c r="D25" s="61"/>
+      <c r="T25" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="U25" s="15"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B26" s="12"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="61"/>
+      <c r="T26" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="18"/>
-      <c r="T19" s="71" t="s">
+      <c r="U26" s="15"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B27" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="67">
+        <f>+'Financial Model'!T36/1000</f>
+        <v>3.7206999999999999</v>
+      </c>
+      <c r="D27" s="68"/>
+      <c r="T27" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="U19" s="18"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="G20" s="15"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="18"/>
-      <c r="T20" s="71" t="s">
+      <c r="U27" s="15"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B28" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="60">
+        <f>+'Financial Model'!T41</f>
+        <v>23.03</v>
+      </c>
+      <c r="D28" s="61"/>
+      <c r="T28" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="U20" s="18"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="G21" s="15"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="18"/>
-      <c r="T21" s="71" t="s">
+      <c r="U28" s="15"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B29" s="12"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="61"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="15"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="T30" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="U30" s="15"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B31" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="64"/>
+      <c r="T31" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="U31" s="15"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T32" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="U21" s="18"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="20"/>
-      <c r="T22" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="U22" s="18"/>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B23" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="T23" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="U23" s="18"/>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B24" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="22">
-        <v>2006</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="18"/>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B25" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="24">
-        <v>44228</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="T25" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="U25" s="18"/>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B26" s="15"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="T26" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="U26" s="18"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B27" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="55">
-        <f>+'Financial Model'!W36/1000</f>
-        <v>3.7206999999999999</v>
-      </c>
-      <c r="D27" s="56"/>
-      <c r="T27" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="U27" s="18"/>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B28" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="54">
-        <f>+'Financial Model'!W41</f>
-        <v>23.03</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="T28" s="71" t="s">
+      <c r="U32" s="15"/>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T33" s="54"/>
+      <c r="U33" s="15"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B34" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="65"/>
+      <c r="D34" s="59"/>
+      <c r="T34" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="U28" s="18"/>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B29" s="15"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="18"/>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B30" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="T30" s="67" t="s">
-        <v>147</v>
-      </c>
-      <c r="U30" s="18"/>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B31" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="58"/>
-      <c r="T31" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="U31" s="18"/>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="T32" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="U32" s="18"/>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="T33" s="71"/>
-      <c r="U33" s="18"/>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-      <c r="T34" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="U34" s="18"/>
+      <c r="U34" s="15"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="61">
-        <f>C6/'Financial Model'!W74</f>
+      <c r="C35" s="71">
+        <f>C6/'Financial Model'!T74</f>
         <v>0.61658406199019111</v>
       </c>
-      <c r="D35" s="62"/>
-      <c r="T35" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="U35" s="18"/>
+      <c r="D35" s="72"/>
+      <c r="T35" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="U35" s="15"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="61">
-        <f>C8/'Financial Model'!W6</f>
+      <c r="C36" s="71">
+        <f>C8/'Financial Model'!T6</f>
         <v>1.3701123568637519</v>
       </c>
-      <c r="D36" s="62"/>
-      <c r="T36" s="72"/>
-      <c r="U36" s="20"/>
+      <c r="D36" s="72"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="17"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="61">
-        <f>C12/'Financial Model'!W6</f>
+      <c r="C37" s="71">
+        <f>C12/'Financial Model'!T6</f>
         <v>1.6223242161946325</v>
       </c>
-      <c r="D37" s="62"/>
+      <c r="D37" s="72"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="61">
-        <f>C6/'Financial Model'!W19</f>
+      <c r="C38" s="71">
+        <f>C6/'Financial Model'!T19</f>
         <v>-771.48034278365242</v>
       </c>
-      <c r="D38" s="62"/>
+      <c r="D38" s="72"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="63">
-        <f>C12/'Financial Model'!W18</f>
+      <c r="C39" s="73">
+        <f>C12/'Financial Model'!T18</f>
         <v>-913.49533207700085</v>
       </c>
-      <c r="D39" s="64"/>
+      <c r="D39" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -1997,13 +1993,14 @@
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="G5:O5"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="T5:U5"/>
     <mergeCell ref="T17:U17"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="C35:D35"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
@@ -2015,7 +2012,6 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{F606B610-ACF6-4AA7-B02B-868AA7FBB27A}"/>
@@ -2031,1137 +2027,1130 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98A6568-810A-4D3B-BE56-2FFDEFD6AA08}">
-  <dimension ref="B1:AF88"/>
+  <dimension ref="B1:AC88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="9.140625" style="1"/>
-    <col min="23" max="23" width="9.140625" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="9.140625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="26" t="s">
+    <row r="1" spans="2:29" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="V1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="X1" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Y1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="Z1" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="26" t="s">
+      <c r="AA1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AB1" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AC1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE1" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF1" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="2:32" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="28"/>
-      <c r="U2" s="45">
+    </row>
+    <row r="2" spans="2:29" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="24"/>
+      <c r="R2" s="39">
         <v>44561</v>
       </c>
-      <c r="V2" s="45">
+      <c r="S2" s="39">
         <v>44926</v>
       </c>
-      <c r="W2" s="45">
+      <c r="T2" s="39">
         <v>45291</v>
       </c>
     </row>
-    <row r="3" spans="2:32" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="28"/>
-    </row>
-    <row r="4" spans="2:32" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="U4" s="35">
+    <row r="3" spans="2:29" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="24"/>
+    </row>
+    <row r="4" spans="2:29" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="R4" s="29">
         <v>528.58500000000004</v>
       </c>
-      <c r="V4" s="35">
+      <c r="S4" s="29">
         <v>694.32899999999995</v>
       </c>
-      <c r="W4" s="35">
+      <c r="T4" s="29">
         <v>844.774</v>
       </c>
     </row>
-    <row r="5" spans="2:32" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="U5" s="35">
+    <row r="5" spans="2:29" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" s="29">
         <v>232.32499999999999</v>
       </c>
-      <c r="V5" s="35">
+      <c r="S5" s="29">
         <v>209.17400000000001</v>
       </c>
-      <c r="W5" s="35">
+      <c r="T5" s="29">
         <v>207.05600000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:32" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="36" t="s">
+    <row r="6" spans="2:29" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="U6" s="36">
-        <f t="shared" ref="U6:V6" si="0">U4+U5</f>
+      <c r="R6" s="30">
+        <f t="shared" ref="R6:S6" si="0">R4+R5</f>
         <v>760.91000000000008</v>
       </c>
-      <c r="V6" s="36">
+      <c r="S6" s="30">
         <f t="shared" si="0"/>
         <v>903.50299999999993</v>
       </c>
-      <c r="W6" s="36">
-        <f>W4+W5</f>
+      <c r="T6" s="30">
+        <f>T4+T5</f>
         <v>1051.83</v>
       </c>
     </row>
-    <row r="7" spans="2:32" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="46" t="s">
+    <row r="7" spans="2:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="46">
+      <c r="R7" s="8">
         <v>205.57300000000001</v>
       </c>
-      <c r="V7" s="46">
+      <c r="S7" s="8">
         <v>249.49</v>
       </c>
-      <c r="W7" s="46">
+      <c r="T7" s="8">
         <v>307.83499999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:32" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="36" t="s">
+    <row r="8" spans="2:29" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="U8" s="36">
-        <f>U6-U7</f>
+      <c r="R8" s="30">
+        <f>R6-R7</f>
         <v>555.3370000000001</v>
       </c>
-      <c r="V8" s="36">
-        <f t="shared" ref="V8:W8" si="1">V6-V7</f>
+      <c r="S8" s="30">
+        <f t="shared" ref="S8:T8" si="1">S6-S7</f>
         <v>654.01299999999992</v>
       </c>
-      <c r="W8" s="36">
+      <c r="T8" s="30">
         <f t="shared" si="1"/>
         <v>743.99499999999989</v>
       </c>
     </row>
-    <row r="9" spans="2:32" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46" t="s">
+    <row r="9" spans="2:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="R9" s="8">
+        <v>211.71100000000001</v>
+      </c>
+      <c r="S9" s="8">
+        <v>249.26900000000001</v>
+      </c>
+      <c r="T9" s="8">
+        <v>270.38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" s="8">
+        <v>257.48899999999998</v>
+      </c>
+      <c r="S10" s="8">
+        <v>308.85500000000002</v>
+      </c>
+      <c r="T10" s="8">
+        <v>221.649</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="R11" s="8">
+        <v>113.764</v>
+      </c>
+      <c r="S11" s="8">
+        <v>109.02</v>
+      </c>
+      <c r="T11" s="8">
+        <v>130.565</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="U9" s="46">
-        <v>211.71100000000001</v>
-      </c>
-      <c r="V9" s="46">
-        <v>249.26900000000001</v>
-      </c>
-      <c r="W9" s="46">
-        <v>270.38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:32" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="46" t="s">
+      <c r="R12" s="8">
+        <v>107.056</v>
+      </c>
+      <c r="S12" s="8">
+        <v>89.712999999999994</v>
+      </c>
+      <c r="T12" s="8">
+        <v>68.028000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="U10" s="46">
-        <v>257.48899999999998</v>
-      </c>
-      <c r="V10" s="46">
-        <v>308.85500000000002</v>
-      </c>
-      <c r="W10" s="46">
-        <v>221.649</v>
-      </c>
-    </row>
-    <row r="11" spans="2:32" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="46" t="s">
+      <c r="R13" s="30">
+        <f>R8-SUM(R9:R12)</f>
+        <v>-134.68299999999988</v>
+      </c>
+      <c r="S13" s="30">
+        <f>S8-SUM(S9:S12)</f>
+        <v>-102.84400000000005</v>
+      </c>
+      <c r="T13" s="30">
+        <f>T8-SUM(T9:T12)</f>
+        <v>53.37299999999982</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="U11" s="46">
-        <v>113.764</v>
-      </c>
-      <c r="V11" s="46">
-        <v>109.02</v>
-      </c>
-      <c r="W11" s="46">
-        <v>130.565</v>
-      </c>
-    </row>
-    <row r="12" spans="2:32" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="46" t="s">
+      <c r="R14" s="8">
+        <v>-24.574000000000002</v>
+      </c>
+      <c r="S14" s="8">
+        <v>-24.062999999999999</v>
+      </c>
+      <c r="T14" s="8">
+        <v>-21.533999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="U12" s="46">
-        <v>107.056</v>
-      </c>
-      <c r="V12" s="46">
-        <v>89.712999999999994</v>
-      </c>
-      <c r="W12" s="46">
-        <v>68.028000000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="2:32" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="36" t="s">
+      <c r="R15" s="1">
+        <v>3.16</v>
+      </c>
+      <c r="S15" s="43">
+        <v>16.189</v>
+      </c>
+      <c r="T15" s="8">
+        <v>-26.536999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="U13" s="36">
-        <f>U8-SUM(U9:U12)</f>
-        <v>-134.68299999999988</v>
-      </c>
-      <c r="V13" s="36">
-        <f>V8-SUM(V9:V12)</f>
-        <v>-102.84400000000005</v>
-      </c>
-      <c r="W13" s="36">
-        <f>W8-SUM(W9:W12)</f>
-        <v>53.37299999999982</v>
-      </c>
-    </row>
-    <row r="14" spans="2:32" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="U14" s="46">
-        <v>-24.574000000000002</v>
-      </c>
-      <c r="V14" s="46">
-        <v>-24.062999999999999</v>
-      </c>
-      <c r="W14" s="46">
-        <v>-21.533999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="U15" s="1">
-        <v>3.16</v>
-      </c>
-      <c r="V15" s="51">
-        <v>16.189</v>
-      </c>
-      <c r="W15" s="46">
-        <v>-26.536999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U16" s="46">
-        <f t="shared" ref="U16:V16" si="2">U13+U14+U15</f>
+      <c r="R16" s="8">
+        <f t="shared" ref="R16:S16" si="2">R13+R14+R15</f>
         <v>-156.09699999999989</v>
       </c>
-      <c r="V16" s="46">
+      <c r="S16" s="8">
         <f t="shared" si="2"/>
         <v>-110.71800000000005</v>
       </c>
-      <c r="W16" s="46">
-        <f>W13+W14+W15</f>
+      <c r="T16" s="8">
+        <f>T13+T14+T15</f>
         <v>5.301999999999822</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U17" s="46">
+        <v>77</v>
+      </c>
+      <c r="R17" s="8">
         <v>-437.83699999999999</v>
       </c>
-      <c r="V17" s="46">
+      <c r="S17" s="8">
         <v>3.4060000000000001</v>
       </c>
-      <c r="W17" s="46">
+      <c r="T17" s="8">
         <v>7.17</v>
       </c>
     </row>
-    <row r="18" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="U18" s="36">
-        <f t="shared" ref="U18:V18" si="3">U16-U17</f>
+        <v>78</v>
+      </c>
+      <c r="R18" s="30">
+        <f t="shared" ref="R18:S18" si="3">R16-R17</f>
         <v>281.74000000000012</v>
       </c>
-      <c r="V18" s="36">
+      <c r="S18" s="30">
         <f t="shared" si="3"/>
         <v>-114.12400000000005</v>
       </c>
-      <c r="W18" s="36">
-        <f>W16-W17</f>
+      <c r="T18" s="30">
+        <f>T16-T17</f>
         <v>-1.868000000000178</v>
       </c>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-    </row>
-    <row r="19" spans="2:26" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="49" t="s">
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+    </row>
+    <row r="19" spans="2:23" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="R19" s="18">
+        <f>R18/R20</f>
+        <v>2.3202626576199874</v>
+      </c>
+      <c r="S19" s="18">
+        <f>S18/S20</f>
+        <v>-0.88180327425136573</v>
+      </c>
+      <c r="T19" s="18">
+        <f>T18/T20</f>
+        <v>-1.3843515392063606E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="8">
+        <v>121.42590800000001</v>
+      </c>
+      <c r="S20" s="8">
+        <v>129.42115699999999</v>
+      </c>
+      <c r="T20" s="8">
+        <v>134.936824</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="U19" s="49">
-        <f>U18/U20</f>
-        <v>2.3202626576199874</v>
-      </c>
-      <c r="V19" s="49">
-        <f>V18/V20</f>
-        <v>-0.88180327425136573</v>
-      </c>
-      <c r="W19" s="49">
-        <f>W18/W20</f>
-        <v>-1.3843515392063606E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="U20" s="46">
-        <v>121.42590800000001</v>
-      </c>
-      <c r="V20" s="46">
-        <v>129.42115699999999</v>
-      </c>
-      <c r="W20" s="46">
-        <v>134.936824</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+      <c r="R22" s="45">
+        <f>R8/R6</f>
+        <v>0.72983270031935454</v>
+      </c>
+      <c r="S22" s="45">
+        <f>S8/S6</f>
+        <v>0.72386367283783226</v>
+      </c>
+      <c r="T22" s="45">
+        <f>T8/T6</f>
+        <v>0.70733388475323955</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R23" s="45">
+        <f>R13/R6</f>
+        <v>-0.17700253643663491</v>
+      </c>
+      <c r="S23" s="45">
+        <f>S13/S6</f>
+        <v>-0.11382806697930174</v>
+      </c>
+      <c r="T23" s="45">
+        <f>T13/T6</f>
+        <v>5.0742990787484503E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R24" s="45">
+        <f>R18/R6</f>
+        <v>0.37026718008700121</v>
+      </c>
+      <c r="S24" s="45">
+        <f>S18/S6</f>
+        <v>-0.1263128069303589</v>
+      </c>
+      <c r="T24" s="45">
+        <f>T18/T6</f>
+        <v>-1.7759523877434358E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="U22" s="53">
-        <f>U8/U6</f>
-        <v>0.72983270031935454</v>
-      </c>
-      <c r="V22" s="53">
-        <f>V8/V6</f>
-        <v>0.72386367283783226</v>
-      </c>
-      <c r="W22" s="53">
-        <f>W8/W6</f>
-        <v>0.70733388475323955</v>
-      </c>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+      <c r="R25" s="45">
+        <f>R17/R16</f>
+        <v>2.8049033613714567</v>
+      </c>
+      <c r="S25" s="45">
+        <f>S17/S16</f>
+        <v>-3.0762838924113502E-2</v>
+      </c>
+      <c r="T25" s="45">
+        <f>T17/T16</f>
+        <v>1.352319879290879</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="U23" s="53">
-        <f>U13/U6</f>
-        <v>-0.17700253643663491</v>
-      </c>
-      <c r="V23" s="53">
-        <f>V13/V6</f>
-        <v>-0.11382806697930174</v>
-      </c>
-      <c r="W23" s="53">
-        <f>W13/W6</f>
-        <v>5.0742990787484503E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
+      <c r="S27" s="42">
+        <f>S6/R6-1</f>
+        <v>0.18739798399285035</v>
+      </c>
+      <c r="T27" s="42">
+        <f>T6/S6-1</f>
+        <v>0.16416879634046588</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="S28" s="47">
+        <f>S4/R4-1</f>
+        <v>0.31356167882175989</v>
+      </c>
+      <c r="T28" s="47">
+        <f>T4/S4-1</f>
+        <v>0.21667682035461588</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="S29" s="47">
+        <f>S5/R5-1</f>
+        <v>-9.9649198321317023E-2</v>
+      </c>
+      <c r="T29" s="47">
+        <f>T5/S5-1</f>
+        <v>-1.0125541415280992E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="U24" s="53">
-        <f>U18/U6</f>
-        <v>0.37026718008700121</v>
-      </c>
-      <c r="V24" s="53">
-        <f>V18/V6</f>
-        <v>-0.1263128069303589</v>
-      </c>
-      <c r="W24" s="53">
-        <f>W18/W6</f>
-        <v>-1.7759523877434358E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="U25" s="53">
-        <f>U17/U16</f>
-        <v>2.8049033613714567</v>
-      </c>
-      <c r="V25" s="53">
-        <f>V17/V16</f>
-        <v>-3.0762838924113502E-2</v>
-      </c>
-      <c r="W25" s="53">
-        <f>W17/W16</f>
-        <v>1.352319879290879</v>
-      </c>
-    </row>
-    <row r="27" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="V27" s="50">
-        <f>V6/U6-1</f>
-        <v>0.18739798399285035</v>
-      </c>
-      <c r="W27" s="50">
-        <f>W6/V6-1</f>
-        <v>0.16416879634046588</v>
-      </c>
-    </row>
-    <row r="28" spans="2:26" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="V28" s="60">
-        <f>V4/U4-1</f>
-        <v>0.31356167882175989</v>
-      </c>
-      <c r="W28" s="60">
-        <f>W4/V4-1</f>
-        <v>0.21667682035461588</v>
-      </c>
-    </row>
-    <row r="29" spans="2:26" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="V29" s="60">
-        <f>V5/U5-1</f>
-        <v>-9.9649198321317023E-2</v>
-      </c>
-      <c r="W29" s="60">
-        <f>W5/V5-1</f>
-        <v>-1.0125541415280992E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="U30" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="V30" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="W30" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B33" s="32" t="s">
+      <c r="R30" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="S30" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="T30" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B33" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="R34" s="28">
+        <v>1499.8</v>
+      </c>
+      <c r="S34" s="28">
+        <v>2002.2</v>
+      </c>
+      <c r="T34" s="29">
+        <v>2517.4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="R35" s="28">
+        <v>1394.1</v>
+      </c>
+      <c r="S35" s="28">
+        <v>1179.7</v>
+      </c>
+      <c r="T35" s="29">
+        <v>1203.3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="U34" s="34">
-        <v>1499.8</v>
-      </c>
-      <c r="V34" s="34">
-        <v>2002.2</v>
-      </c>
-      <c r="W34" s="35">
-        <v>2517.4</v>
-      </c>
-    </row>
-    <row r="35" spans="2:25" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="U35" s="34">
-        <v>1394.1</v>
-      </c>
-      <c r="V35" s="34">
-        <v>1179.7</v>
-      </c>
-      <c r="W35" s="35">
-        <v>1203.3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="U36" s="36">
-        <f t="shared" ref="U36:V36" si="4">U34+U35</f>
+      <c r="R36" s="30">
+        <f t="shared" ref="R36:S36" si="4">R34+R35</f>
         <v>2893.8999999999996</v>
       </c>
-      <c r="V36" s="36">
+      <c r="S36" s="30">
         <f t="shared" si="4"/>
         <v>3181.9</v>
       </c>
-      <c r="W36" s="36">
-        <f>W34+W35</f>
+      <c r="T36" s="30">
+        <f>T34+T35</f>
         <v>3720.7</v>
       </c>
-      <c r="Y36" s="52"/>
-    </row>
-    <row r="37" spans="2:25" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="U37" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="V37" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="W37" s="41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="2:25" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="V38" s="40">
-        <f t="shared" ref="V38" si="5">V36/U36-1</f>
+      <c r="V36" s="44"/>
+    </row>
+    <row r="37" spans="2:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="R37" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="S37" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="T37" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="S38" s="34">
+        <f t="shared" ref="S38" si="5">S36/R36-1</f>
         <v>9.9519679325478005E-2</v>
       </c>
-      <c r="W38" s="40">
-        <f>W36/V36-1</f>
+      <c r="T38" s="34">
+        <f>T36/S36-1</f>
         <v>0.16933278858543632</v>
       </c>
     </row>
-    <row r="39" spans="2:25" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="U39" s="34">
+    <row r="39" spans="2:22" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="R39" s="28">
         <v>29.37</v>
       </c>
-      <c r="V39" s="34">
+      <c r="S39" s="28">
         <v>28.9</v>
       </c>
-      <c r="W39" s="37">
+      <c r="T39" s="31">
         <v>27.97</v>
       </c>
     </row>
-    <row r="40" spans="2:25" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="U40" s="34">
+    <row r="40" spans="2:22" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="R40" s="28">
         <v>13.13</v>
       </c>
-      <c r="V40" s="34">
+      <c r="S40" s="28">
         <v>13.06</v>
       </c>
-      <c r="W40" s="37">
+      <c r="T40" s="31">
         <v>12.7</v>
       </c>
     </row>
-    <row r="41" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U41" s="2">
+      <c r="R41" s="2">
         <v>21.55</v>
       </c>
-      <c r="V41" s="2">
+      <c r="S41" s="2">
         <v>23.03</v>
       </c>
-      <c r="W41" s="38">
+      <c r="T41" s="32">
         <v>23.03</v>
       </c>
     </row>
-    <row r="42" spans="2:25" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="U42" s="44" t="s">
+    <row r="42" spans="2:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="V42" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="W42" s="44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="2:25" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="U43" s="40"/>
-      <c r="V43" s="40">
-        <f t="shared" ref="V43:W43" si="6">V41/U41-1</f>
+      <c r="R42" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="S42" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="T42" s="38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34">
+        <f t="shared" ref="S43" si="6">S41/R41-1</f>
         <v>6.867749419953606E-2</v>
       </c>
-      <c r="W43" s="40">
-        <f>W41/V41-1</f>
+      <c r="T43" s="34">
+        <f>T41/S41-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:25" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="W44" s="48">
+    <row r="44" spans="2:22" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="T44" s="41">
         <v>1200</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B47" s="32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B47" s="26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="36"/>
-      <c r="V48" s="36">
+      <c r="R48" s="30"/>
+      <c r="S48" s="30">
         <v>402.55900000000003</v>
       </c>
-      <c r="W48" s="36">
+      <c r="T48" s="30">
         <v>355.642</v>
       </c>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R49" s="46"/>
-      <c r="S49" s="46"/>
-      <c r="T49" s="46"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46">
+        <v>89</v>
+      </c>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8">
         <v>66.930000000000007</v>
       </c>
-      <c r="W49" s="46">
+      <c r="T49" s="8">
         <v>102.67700000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="R50" s="46"/>
-      <c r="S50" s="46"/>
-      <c r="T50" s="46"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46">
+        <v>90</v>
+      </c>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8">
         <v>31.882000000000001</v>
       </c>
-      <c r="W50" s="46">
+      <c r="T50" s="8">
         <v>34.731999999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="R51" s="46"/>
-      <c r="S51" s="46"/>
-      <c r="T51" s="46"/>
-      <c r="U51" s="46">
-        <f t="shared" ref="U51:V51" si="7">SUM(U48:U50)</f>
+        <v>91</v>
+      </c>
+      <c r="R51" s="8">
+        <f t="shared" ref="R51:S51" si="7">SUM(R48:R50)</f>
         <v>0</v>
       </c>
-      <c r="V51" s="46">
+      <c r="S51" s="8">
         <f t="shared" si="7"/>
         <v>501.37100000000004</v>
       </c>
-      <c r="W51" s="46">
-        <f>SUM(W48:W50)</f>
+      <c r="T51" s="8">
+        <f>SUM(T48:T50)</f>
         <v>493.05100000000004</v>
       </c>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R52" s="46"/>
-      <c r="S52" s="46"/>
-      <c r="T52" s="46"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46">
+        <v>92</v>
+      </c>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8">
         <v>17.419</v>
       </c>
-      <c r="W52" s="46">
+      <c r="T52" s="8">
         <v>15.425000000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="R53" s="46"/>
-      <c r="S53" s="46"/>
-      <c r="T53" s="46"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46">
+        <v>93</v>
+      </c>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8">
         <v>14.467000000000001</v>
       </c>
-      <c r="W53" s="46">
+      <c r="T53" s="8">
         <v>12.462</v>
       </c>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="R54" s="46"/>
-      <c r="S54" s="46"/>
-      <c r="T54" s="46"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46">
+        <v>94</v>
+      </c>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8">
         <f>1579.77+1524.428</f>
         <v>3104.1980000000003</v>
       </c>
-      <c r="W54" s="46">
+      <c r="T54" s="8">
         <f>1585.75+1484.29</f>
         <v>3070.04</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="R55" s="46"/>
-      <c r="S55" s="46"/>
-      <c r="T55" s="46"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46">
+        <v>95</v>
+      </c>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8">
         <v>24.05</v>
       </c>
-      <c r="W55" s="46">
+      <c r="T55" s="8">
         <v>27.029</v>
       </c>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="R56" s="46"/>
-      <c r="S56" s="46"/>
-      <c r="T56" s="46"/>
-      <c r="U56" s="46"/>
-      <c r="V56" s="46">
+        <v>96</v>
+      </c>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8">
         <v>31.116</v>
       </c>
-      <c r="W56" s="46">
+      <c r="T56" s="8">
         <v>7.12</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="R57" s="46"/>
-      <c r="S57" s="46"/>
-      <c r="T57" s="46"/>
-      <c r="U57" s="46">
-        <f t="shared" ref="U57:V57" si="8">SUM(U51:U56)</f>
+        <v>97</v>
+      </c>
+      <c r="R57" s="8">
+        <f t="shared" ref="R57:S57" si="8">SUM(R51:R56)</f>
         <v>0</v>
       </c>
-      <c r="V57" s="46">
+      <c r="S57" s="8">
         <f t="shared" si="8"/>
         <v>3692.6210000000005</v>
       </c>
-      <c r="W57" s="46">
-        <f>SUM(W51:W56)</f>
+      <c r="T57" s="8">
+        <f>SUM(T51:T56)</f>
         <v>3625.127</v>
       </c>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R58" s="46"/>
-      <c r="S58" s="46"/>
-      <c r="T58" s="46"/>
-      <c r="U58" s="46"/>
-      <c r="V58" s="46"/>
-      <c r="W58" s="46"/>
-    </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8">
+        <v>3.367</v>
+      </c>
+      <c r="T59" s="8">
+        <v>4.6109999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8">
+        <v>46.107999999999997</v>
+      </c>
+      <c r="T60" s="8">
+        <v>48.749000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8">
+        <v>156.44300000000001</v>
+      </c>
+      <c r="T61" s="8">
+        <v>185.79900000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="R59" s="46"/>
-      <c r="S59" s="46"/>
-      <c r="T59" s="46"/>
-      <c r="U59" s="46"/>
-      <c r="V59" s="46">
-        <v>3.367</v>
-      </c>
-      <c r="W59" s="46">
-        <v>4.6109999999999998</v>
-      </c>
-    </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
+      <c r="R62" s="30"/>
+      <c r="S62" s="30">
+        <v>5.75</v>
+      </c>
+      <c r="T62" s="30">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R60" s="46"/>
-      <c r="S60" s="46"/>
-      <c r="T60" s="46"/>
-      <c r="U60" s="46"/>
-      <c r="V60" s="46">
-        <v>46.107999999999997</v>
-      </c>
-      <c r="W60" s="46">
-        <v>48.749000000000002</v>
-      </c>
-    </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="R61" s="46"/>
-      <c r="S61" s="46"/>
-      <c r="T61" s="46"/>
-      <c r="U61" s="46"/>
-      <c r="V61" s="46">
-        <v>156.44300000000001</v>
-      </c>
-      <c r="W61" s="46">
-        <v>185.79900000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="R62" s="36"/>
-      <c r="S62" s="36"/>
-      <c r="T62" s="36"/>
-      <c r="U62" s="36"/>
-      <c r="V62" s="36">
-        <v>5.75</v>
-      </c>
-      <c r="W62" s="36">
-        <v>5.75</v>
-      </c>
-    </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="R63" s="46"/>
-      <c r="S63" s="46"/>
-      <c r="T63" s="46"/>
-      <c r="U63" s="46">
-        <f t="shared" ref="U63:V63" si="9">SUM(U59:U62)</f>
+      <c r="R63" s="8">
+        <f t="shared" ref="R63:S63" si="9">SUM(R59:R62)</f>
         <v>0</v>
       </c>
-      <c r="V63" s="46">
+      <c r="S63" s="8">
         <f t="shared" si="9"/>
         <v>211.66800000000001</v>
       </c>
-      <c r="W63" s="46">
-        <f>SUM(W59:W62)</f>
+      <c r="T63" s="8">
+        <f>SUM(T59:T62)</f>
         <v>244.90899999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30">
+        <v>619.22299999999996</v>
+      </c>
+      <c r="T64" s="30">
+        <v>615.17600000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8">
+        <v>8.077</v>
+      </c>
+      <c r="T65" s="8">
+        <v>5.673</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8">
+        <v>385.48599999999999</v>
+      </c>
+      <c r="T66" s="8">
+        <v>407.38900000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8">
+        <v>14.587999999999999</v>
+      </c>
+      <c r="T67" s="8">
+        <v>14.707000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="R64" s="36"/>
-      <c r="S64" s="36"/>
-      <c r="T64" s="36"/>
-      <c r="U64" s="36"/>
-      <c r="V64" s="36">
-        <v>619.22299999999996</v>
-      </c>
-      <c r="W64" s="36">
-        <v>615.17600000000004</v>
-      </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="R65" s="46"/>
-      <c r="S65" s="46"/>
-      <c r="T65" s="46"/>
-      <c r="U65" s="46"/>
-      <c r="V65" s="46">
-        <v>8.077</v>
-      </c>
-      <c r="W65" s="46">
-        <v>5.673</v>
-      </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R66" s="46"/>
-      <c r="S66" s="46"/>
-      <c r="T66" s="46"/>
-      <c r="U66" s="46"/>
-      <c r="V66" s="46">
-        <v>385.48599999999999</v>
-      </c>
-      <c r="W66" s="46">
-        <v>407.38900000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="R67" s="46"/>
-      <c r="S67" s="46"/>
-      <c r="T67" s="46"/>
-      <c r="U67" s="46"/>
-      <c r="V67" s="46">
-        <v>14.587999999999999</v>
-      </c>
-      <c r="W67" s="46">
-        <v>14.707000000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="R68" s="46"/>
-      <c r="S68" s="46"/>
-      <c r="T68" s="46"/>
-      <c r="U68" s="46">
-        <f t="shared" ref="U68:V68" si="10">SUM(U63:U67)</f>
+      <c r="R68" s="8">
+        <f t="shared" ref="R68:S68" si="10">SUM(R63:R67)</f>
         <v>0</v>
       </c>
-      <c r="V68" s="46">
+      <c r="S68" s="8">
         <f t="shared" si="10"/>
         <v>1239.0419999999999</v>
       </c>
-      <c r="W68" s="46">
-        <f>SUM(W63:W67)</f>
+      <c r="T68" s="8">
+        <f>SUM(T63:T67)</f>
         <v>1287.854</v>
       </c>
     </row>
-    <row r="70" spans="2:23" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="46" t="s">
+    <row r="70" spans="2:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="S70" s="8">
+        <v>3692.6210000000001</v>
+      </c>
+      <c r="T70" s="8">
+        <v>3625.127</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="S71" s="8">
+        <f t="shared" ref="S71" si="11">S70+S68</f>
+        <v>4931.6630000000005</v>
+      </c>
+      <c r="T71" s="8">
+        <f>T70+T68</f>
+        <v>4912.9809999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S73" s="8">
+        <f>S57-S68</f>
+        <v>2453.5790000000006</v>
+      </c>
+      <c r="T73" s="8">
+        <f>T57-T68</f>
+        <v>2337.2730000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="V70" s="46">
-        <v>3692.6210000000001</v>
-      </c>
-      <c r="W70" s="46">
-        <v>3625.127</v>
-      </c>
-    </row>
-    <row r="71" spans="2:23" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="V71" s="46">
-        <f t="shared" ref="V71" si="11">V70+V68</f>
-        <v>4931.6630000000005</v>
-      </c>
-      <c r="W71" s="46">
-        <f>W70+W68</f>
-        <v>4912.9809999999998</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="V73" s="46">
-        <f>V57-V68</f>
-        <v>2453.5790000000006</v>
-      </c>
-      <c r="W73" s="46">
-        <f>W57-W68</f>
-        <v>2337.2730000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="V74" s="1">
-        <f>V73/V20</f>
+      <c r="S74" s="1">
+        <f>S73/S20</f>
         <v>18.958098172464961</v>
       </c>
-      <c r="W74" s="1">
-        <f>W73/W20</f>
+      <c r="T74" s="1">
+        <f>T73/T20</f>
         <v>17.321239160038331</v>
       </c>
     </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U76" s="46">
-        <f t="shared" ref="U76:W76" si="12">+U48</f>
+      <c r="R76" s="8">
+        <f t="shared" ref="R76:S76" si="12">+R48</f>
         <v>0</v>
       </c>
-      <c r="V76" s="46">
+      <c r="S76" s="8">
         <f t="shared" si="12"/>
         <v>402.55900000000003</v>
       </c>
-      <c r="W76" s="46">
-        <f>+W48</f>
+      <c r="T76" s="8">
+        <f>+T48</f>
         <v>355.642</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U77" s="46">
-        <f t="shared" ref="U77:W77" si="13">+U62+U64</f>
+      <c r="R77" s="8">
+        <f t="shared" ref="R77:S77" si="13">+R62+R64</f>
         <v>0</v>
       </c>
-      <c r="V77" s="46">
+      <c r="S77" s="8">
         <f t="shared" si="13"/>
         <v>624.97299999999996</v>
       </c>
-      <c r="W77" s="46">
-        <f>+W62+W64</f>
+      <c r="T77" s="8">
+        <f>+T62+T64</f>
         <v>620.92600000000004</v>
       </c>
     </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U78" s="46">
-        <f t="shared" ref="U78:V78" si="14">U76-U77</f>
+      <c r="R78" s="8">
+        <f t="shared" ref="R78:S78" si="14">R76-R77</f>
         <v>0</v>
       </c>
-      <c r="V78" s="46">
+      <c r="S78" s="8">
         <f t="shared" si="14"/>
         <v>-222.41399999999993</v>
       </c>
-      <c r="W78" s="46">
-        <f>W76-W77</f>
+      <c r="T78" s="8">
+        <f>T76-T77</f>
         <v>-265.28400000000005</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R80" s="1">
+        <v>33.86</v>
+      </c>
+      <c r="S80" s="1">
+        <v>21.05</v>
+      </c>
+      <c r="T80" s="1">
+        <v>14.74</v>
+      </c>
+    </row>
+    <row r="81" spans="2:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
+      <c r="S81" s="8">
+        <f>S80*S20</f>
+        <v>2724.3153548499999</v>
+      </c>
+      <c r="T81" s="8">
+        <f>T80*T20</f>
+        <v>1988.9687857599999</v>
+      </c>
+    </row>
+    <row r="82" spans="2:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" s="1" t="s">
+      <c r="S82" s="8">
+        <f>S81-S78</f>
+        <v>2946.7293548499997</v>
+      </c>
+      <c r="T82" s="8">
+        <f>T81-T78</f>
+        <v>2254.2527857599998</v>
+      </c>
+    </row>
+    <row r="84" spans="2:20" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="75" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="S84" s="75">
+        <f>S80/S74</f>
+        <v>1.1103434431294037</v>
+      </c>
+      <c r="T84" s="75">
+        <f>T80/T74</f>
+        <v>0.85097837769058216</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="S85" s="75">
+        <f>S81/S6</f>
+        <v>3.0152809175509105</v>
+      </c>
+      <c r="T85" s="75">
+        <f>T81/T6</f>
+        <v>1.8909603127501593</v>
+      </c>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="S86" s="75">
+        <f>S82/S6</f>
+        <v>3.2614494416177919</v>
+      </c>
+      <c r="T86" s="75">
+        <f>T82/T6</f>
+        <v>2.1431721720810395</v>
+      </c>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="S87" s="75">
+        <f>S80/S18</f>
+        <v>-0.18444849461988705</v>
+      </c>
+      <c r="T87" s="75">
+        <f>T80/T18</f>
+        <v>-7.890792291219805</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="S88" s="75">
+        <f>S82/S18</f>
+        <v>-25.820417746048143</v>
+      </c>
+      <c r="T88" s="75">
+        <f>T82/T18</f>
+        <v>-1206.7734399142319</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="W1" r:id="rId1" xr:uid="{1FEA7EB2-90F5-4396-9A65-19E36DE199B0}"/>
+    <hyperlink ref="T1" r:id="rId1" xr:uid="{1FEA7EB2-90F5-4396-9A65-19E36DE199B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>

--- a/$BMBL.xlsx
+++ b/$BMBL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC38EFF5-D298-4130-902A-83D433AA144A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920BE428-16E2-43C3-BE34-B4B7176AF1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1860" windowWidth="26610" windowHeight="12885" xr2:uid="{7262DCEC-3A26-4705-BC25-0BF37D9C2A83}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7262DCEC-3A26-4705-BC25-0BF37D9C2A83}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="155">
   <si>
     <t>$BMBL</t>
   </si>
@@ -522,6 +522,18 @@
   </si>
   <si>
     <t>Founder, CoFound Tinder</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
@@ -861,12 +873,34 @@
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="4" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -876,15 +910,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -900,19 +925,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1001,13 +1013,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -1351,7 +1363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C871616B-CBD7-4621-AF07-2BBDAE047A83}">
   <dimension ref="A2:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1372,26 +1384,26 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="59"/>
-      <c r="G5" s="58" t="s">
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
+      <c r="G5" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="59"/>
-      <c r="T5" s="58" t="s">
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="65"/>
+      <c r="T5" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="U5" s="59"/>
+      <c r="U5" s="65"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -1423,7 +1435,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="8">
-        <f>+'Financial Model'!T20</f>
+        <f>+'Financial Model'!W20</f>
         <v>134.936824</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1479,7 +1491,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="8">
-        <f>+'Financial Model'!T76</f>
+        <f>+'Financial Model'!W76</f>
         <v>355.642</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1504,7 +1516,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="8">
-        <f>+'Financial Model'!T77</f>
+        <f>+'Financial Model'!W77</f>
         <v>620.92600000000004</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -1634,11 +1646,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="59"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
       <c r="G15" s="51">
         <v>44562</v>
       </c>
@@ -1656,15 +1668,15 @@
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="56">
         <f ca="1">TODAY()-DATE(1989, 7, 1)</f>
-        <v>12671</v>
+        <v>12912</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="70"/>
+      <c r="D16" s="75"/>
       <c r="E16" s="57" t="s">
         <v>150</v>
       </c>
@@ -1684,10 +1696,10 @@
       <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="61"/>
+      <c r="D17" s="69"/>
       <c r="G17" s="12"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -1697,19 +1709,19 @@
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
       <c r="O17" s="15"/>
-      <c r="T17" s="58" t="s">
+      <c r="T17" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="U17" s="59"/>
+      <c r="U17" s="65"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="D18" s="70"/>
+      <c r="D18" s="75"/>
       <c r="E18" s="1" t="s">
         <v>148</v>
       </c>
@@ -1731,10 +1743,10 @@
       <c r="B19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="64"/>
+      <c r="D19" s="67"/>
       <c r="E19" s="1" t="s">
         <v>149</v>
       </c>
@@ -1783,11 +1795,11 @@
       <c r="U21" s="15"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="59"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
       <c r="G22" s="13"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
@@ -1806,10 +1818,10 @@
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="61"/>
+      <c r="D23" s="69"/>
       <c r="T23" s="54" t="s">
         <v>140</v>
       </c>
@@ -1819,10 +1831,10 @@
       <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="62">
+      <c r="C24" s="70">
         <v>2006</v>
       </c>
-      <c r="D24" s="61"/>
+      <c r="D24" s="69"/>
       <c r="T24" s="48"/>
       <c r="U24" s="15"/>
     </row>
@@ -1830,10 +1842,10 @@
       <c r="B25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="66">
+      <c r="C25" s="71">
         <v>44228</v>
       </c>
-      <c r="D25" s="61"/>
+      <c r="D25" s="69"/>
       <c r="T25" s="50" t="s">
         <v>57</v>
       </c>
@@ -1841,8 +1853,8 @@
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="61"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="69"/>
       <c r="T26" s="54" t="s">
         <v>138</v>
       </c>
@@ -1852,11 +1864,11 @@
       <c r="B27" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="67">
-        <f>+'Financial Model'!T36/1000</f>
+      <c r="C27" s="72">
+        <f>+'Financial Model'!W36/1000</f>
         <v>3.7206999999999999</v>
       </c>
-      <c r="D27" s="68"/>
+      <c r="D27" s="73"/>
       <c r="T27" s="54" t="s">
         <v>141</v>
       </c>
@@ -1866,11 +1878,11 @@
       <c r="B28" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="60">
-        <f>+'Financial Model'!T41</f>
+      <c r="C28" s="68">
+        <f>+'Financial Model'!W41</f>
         <v>23.03</v>
       </c>
-      <c r="D28" s="61"/>
+      <c r="D28" s="69"/>
       <c r="T28" s="54" t="s">
         <v>142</v>
       </c>
@@ -1878,8 +1890,8 @@
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="61"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="69"/>
       <c r="T29" s="54"/>
       <c r="U29" s="15"/>
     </row>
@@ -1900,10 +1912,10 @@
       <c r="B31" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="64"/>
+      <c r="D31" s="67"/>
       <c r="T31" s="54" t="s">
         <v>144</v>
       </c>
@@ -1920,11 +1932,11 @@
       <c r="U33" s="15"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="65"/>
-      <c r="D34" s="59"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
       <c r="T34" s="50" t="s">
         <v>146</v>
       </c>
@@ -1934,11 +1946,11 @@
       <c r="B35" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="71">
-        <f>C6/'Financial Model'!T74</f>
+      <c r="C35" s="59">
+        <f>C6/'Financial Model'!W74</f>
         <v>0.61658406199019111</v>
       </c>
-      <c r="D35" s="72"/>
+      <c r="D35" s="60"/>
       <c r="T35" s="54" t="s">
         <v>138</v>
       </c>
@@ -1948,11 +1960,11 @@
       <c r="B36" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="71">
-        <f>C8/'Financial Model'!T6</f>
+      <c r="C36" s="59">
+        <f>C8/'Financial Model'!W6</f>
         <v>1.3701123568637519</v>
       </c>
-      <c r="D36" s="72"/>
+      <c r="D36" s="60"/>
       <c r="T36" s="55"/>
       <c r="U36" s="17"/>
     </row>
@@ -1960,42 +1972,34 @@
       <c r="B37" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="71">
-        <f>C12/'Financial Model'!T6</f>
+      <c r="C37" s="59">
+        <f>C12/'Financial Model'!W6</f>
         <v>1.6223242161946325</v>
       </c>
-      <c r="D37" s="72"/>
+      <c r="D37" s="60"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B38" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="71">
-        <f>C6/'Financial Model'!T19</f>
+      <c r="C38" s="59">
+        <f>C6/'Financial Model'!W19</f>
         <v>-771.48034278365242</v>
       </c>
-      <c r="D38" s="72"/>
+      <c r="D38" s="60"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B39" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="73">
-        <f>C12/'Financial Model'!T18</f>
+      <c r="C39" s="61">
+        <f>C12/'Financial Model'!W18</f>
         <v>-913.49533207700085</v>
       </c>
-      <c r="D39" s="74"/>
+      <c r="D39" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C19:D19"/>
     <mergeCell ref="T5:U5"/>
     <mergeCell ref="T17:U17"/>
     <mergeCell ref="C28:D28"/>
@@ -2012,6 +2016,14 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{F606B610-ACF6-4AA7-B02B-868AA7FBB27A}"/>
@@ -2027,25 +2039,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98A6568-810A-4D3B-BE56-2FFDEFD6AA08}">
-  <dimension ref="B1:AC88"/>
+  <dimension ref="B1:AF88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomRight" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="9.140625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="9.140625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:32" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="22" t="s">
         <v>43</v>
       </c>
@@ -2082,1075 +2094,1087 @@
       <c r="N1" s="22" t="s">
         <v>32</v>
       </c>
+      <c r="O1" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>153</v>
+      </c>
       <c r="R1" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="U1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="V1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="W1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="X1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="Y1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="Z1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="AA1" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="AB1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="AC1" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AD1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="22" t="s">
+      <c r="AE1" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="22" t="s">
+      <c r="AF1" s="22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="2:29" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:32" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="24"/>
-      <c r="R2" s="39">
+      <c r="U2" s="39">
         <v>44561</v>
       </c>
-      <c r="S2" s="39">
+      <c r="V2" s="39">
         <v>44926</v>
       </c>
-      <c r="T2" s="39">
+      <c r="W2" s="39">
         <v>45291</v>
       </c>
     </row>
-    <row r="3" spans="2:29" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:32" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24"/>
     </row>
-    <row r="4" spans="2:29" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:32" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="R4" s="29">
+      <c r="U4" s="29">
         <v>528.58500000000004</v>
       </c>
-      <c r="S4" s="29">
+      <c r="V4" s="29">
         <v>694.32899999999995</v>
       </c>
-      <c r="T4" s="29">
+      <c r="W4" s="29">
         <v>844.774</v>
       </c>
     </row>
-    <row r="5" spans="2:29" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:32" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="R5" s="29">
+      <c r="U5" s="29">
         <v>232.32499999999999</v>
       </c>
-      <c r="S5" s="29">
+      <c r="V5" s="29">
         <v>209.17400000000001</v>
       </c>
-      <c r="T5" s="29">
+      <c r="W5" s="29">
         <v>207.05600000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:29" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:32" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="30">
-        <f t="shared" ref="R6:S6" si="0">R4+R5</f>
+      <c r="U6" s="30">
+        <f t="shared" ref="U6:V6" si="0">U4+U5</f>
         <v>760.91000000000008</v>
       </c>
-      <c r="S6" s="30">
+      <c r="V6" s="30">
         <f t="shared" si="0"/>
         <v>903.50299999999993</v>
       </c>
-      <c r="T6" s="30">
-        <f>T4+T5</f>
+      <c r="W6" s="30">
+        <f>W4+W5</f>
         <v>1051.83</v>
       </c>
     </row>
-    <row r="7" spans="2:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="8">
+      <c r="U7" s="8">
         <v>205.57300000000001</v>
       </c>
-      <c r="S7" s="8">
+      <c r="V7" s="8">
         <v>249.49</v>
       </c>
-      <c r="T7" s="8">
+      <c r="W7" s="8">
         <v>307.83499999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:29" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:32" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="30">
-        <f>R6-R7</f>
+      <c r="U8" s="30">
+        <f>U6-U7</f>
         <v>555.3370000000001</v>
       </c>
-      <c r="S8" s="30">
-        <f t="shared" ref="S8:T8" si="1">S6-S7</f>
+      <c r="V8" s="30">
+        <f t="shared" ref="V8:W8" si="1">V6-V7</f>
         <v>654.01299999999992</v>
       </c>
-      <c r="T8" s="30">
+      <c r="W8" s="30">
         <f t="shared" si="1"/>
         <v>743.99499999999989</v>
       </c>
     </row>
-    <row r="9" spans="2:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="R9" s="8">
+      <c r="U9" s="8">
         <v>211.71100000000001</v>
       </c>
-      <c r="S9" s="8">
+      <c r="V9" s="8">
         <v>249.26900000000001</v>
       </c>
-      <c r="T9" s="8">
+      <c r="W9" s="8">
         <v>270.38</v>
       </c>
     </row>
-    <row r="10" spans="2:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="R10" s="8">
+      <c r="U10" s="8">
         <v>257.48899999999998</v>
       </c>
-      <c r="S10" s="8">
+      <c r="V10" s="8">
         <v>308.85500000000002</v>
       </c>
-      <c r="T10" s="8">
+      <c r="W10" s="8">
         <v>221.649</v>
       </c>
     </row>
-    <row r="11" spans="2:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="R11" s="8">
+      <c r="U11" s="8">
         <v>113.764</v>
       </c>
-      <c r="S11" s="8">
+      <c r="V11" s="8">
         <v>109.02</v>
       </c>
-      <c r="T11" s="8">
+      <c r="W11" s="8">
         <v>130.565</v>
       </c>
     </row>
-    <row r="12" spans="2:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="R12" s="8">
+      <c r="U12" s="8">
         <v>107.056</v>
       </c>
-      <c r="S12" s="8">
+      <c r="V12" s="8">
         <v>89.712999999999994</v>
       </c>
-      <c r="T12" s="8">
+      <c r="W12" s="8">
         <v>68.028000000000006</v>
       </c>
     </row>
-    <row r="13" spans="2:29" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:32" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="R13" s="30">
-        <f>R8-SUM(R9:R12)</f>
+      <c r="U13" s="30">
+        <f>U8-SUM(U9:U12)</f>
         <v>-134.68299999999988</v>
       </c>
-      <c r="S13" s="30">
-        <f>S8-SUM(S9:S12)</f>
+      <c r="V13" s="30">
+        <f>V8-SUM(V9:V12)</f>
         <v>-102.84400000000005</v>
       </c>
-      <c r="T13" s="30">
-        <f>T8-SUM(T9:T12)</f>
+      <c r="W13" s="30">
+        <f>W8-SUM(W9:W12)</f>
         <v>53.37299999999982</v>
       </c>
     </row>
-    <row r="14" spans="2:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="R14" s="8">
+      <c r="U14" s="8">
         <v>-24.574000000000002</v>
       </c>
-      <c r="S14" s="8">
+      <c r="V14" s="8">
         <v>-24.062999999999999</v>
       </c>
-      <c r="T14" s="8">
+      <c r="W14" s="8">
         <v>-21.533999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="R15" s="1">
+      <c r="U15" s="1">
         <v>3.16</v>
       </c>
-      <c r="S15" s="43">
+      <c r="V15" s="43">
         <v>16.189</v>
       </c>
-      <c r="T15" s="8">
+      <c r="W15" s="8">
         <v>-26.536999999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="R16" s="8">
-        <f t="shared" ref="R16:S16" si="2">R13+R14+R15</f>
+      <c r="U16" s="8">
+        <f t="shared" ref="U16:V16" si="2">U13+U14+U15</f>
         <v>-156.09699999999989</v>
       </c>
-      <c r="S16" s="8">
+      <c r="V16" s="8">
         <f t="shared" si="2"/>
         <v>-110.71800000000005</v>
       </c>
-      <c r="T16" s="8">
-        <f>T13+T14+T15</f>
+      <c r="W16" s="8">
+        <f>W13+W14+W15</f>
         <v>5.301999999999822</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="R17" s="8">
+      <c r="U17" s="8">
         <v>-437.83699999999999</v>
       </c>
-      <c r="S17" s="8">
+      <c r="V17" s="8">
         <v>3.4060000000000001</v>
       </c>
-      <c r="T17" s="8">
+      <c r="W17" s="8">
         <v>7.17</v>
       </c>
     </row>
-    <row r="18" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="R18" s="30">
-        <f t="shared" ref="R18:S18" si="3">R16-R17</f>
+      <c r="U18" s="30">
+        <f t="shared" ref="U18:V18" si="3">U16-U17</f>
         <v>281.74000000000012</v>
       </c>
-      <c r="S18" s="30">
+      <c r="V18" s="30">
         <f t="shared" si="3"/>
         <v>-114.12400000000005</v>
       </c>
-      <c r="T18" s="30">
-        <f>T16-T17</f>
+      <c r="W18" s="30">
+        <f>W16-W17</f>
         <v>-1.868000000000178</v>
       </c>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-    </row>
-    <row r="19" spans="2:23" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+    </row>
+    <row r="19" spans="2:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="R19" s="18">
-        <f>R18/R20</f>
+      <c r="U19" s="18">
+        <f>U18/U20</f>
         <v>2.3202626576199874</v>
       </c>
-      <c r="S19" s="18">
-        <f>S18/S20</f>
+      <c r="V19" s="18">
+        <f>V18/V20</f>
         <v>-0.88180327425136573</v>
       </c>
-      <c r="T19" s="18">
-        <f>T18/T20</f>
+      <c r="W19" s="18">
+        <f>W18/W20</f>
         <v>-1.3843515392063606E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="8">
+      <c r="U20" s="8">
         <v>121.42590800000001</v>
       </c>
-      <c r="S20" s="8">
+      <c r="V20" s="8">
         <v>129.42115699999999</v>
       </c>
-      <c r="T20" s="8">
+      <c r="W20" s="8">
         <v>134.936824</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="R22" s="45">
-        <f>R8/R6</f>
+      <c r="U22" s="45">
+        <f>U8/U6</f>
         <v>0.72983270031935454</v>
       </c>
-      <c r="S22" s="45">
-        <f>S8/S6</f>
+      <c r="V22" s="45">
+        <f>V8/V6</f>
         <v>0.72386367283783226</v>
       </c>
-      <c r="T22" s="45">
-        <f>T8/T6</f>
+      <c r="W22" s="45">
+        <f>W8/W6</f>
         <v>0.70733388475323955</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="R23" s="45">
-        <f>R13/R6</f>
+      <c r="U23" s="45">
+        <f>U13/U6</f>
         <v>-0.17700253643663491</v>
       </c>
-      <c r="S23" s="45">
-        <f>S13/S6</f>
+      <c r="V23" s="45">
+        <f>V13/V6</f>
         <v>-0.11382806697930174</v>
       </c>
-      <c r="T23" s="45">
-        <f>T13/T6</f>
+      <c r="W23" s="45">
+        <f>W13/W6</f>
         <v>5.0742990787484503E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R24" s="45">
-        <f>R18/R6</f>
+      <c r="U24" s="45">
+        <f>U18/U6</f>
         <v>0.37026718008700121</v>
       </c>
-      <c r="S24" s="45">
-        <f>S18/S6</f>
+      <c r="V24" s="45">
+        <f>V18/V6</f>
         <v>-0.1263128069303589</v>
       </c>
-      <c r="T24" s="45">
-        <f>T18/T6</f>
+      <c r="W24" s="45">
+        <f>W18/W6</f>
         <v>-1.7759523877434358E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R25" s="45">
-        <f>R17/R16</f>
+      <c r="U25" s="45">
+        <f>U17/U16</f>
         <v>2.8049033613714567</v>
       </c>
-      <c r="S25" s="45">
-        <f>S17/S16</f>
+      <c r="V25" s="45">
+        <f>V17/V16</f>
         <v>-3.0762838924113502E-2</v>
       </c>
-      <c r="T25" s="45">
-        <f>T17/T16</f>
+      <c r="W25" s="45">
+        <f>W17/W16</f>
         <v>1.352319879290879</v>
       </c>
     </row>
-    <row r="27" spans="2:23" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:26" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="S27" s="42">
-        <f>S6/R6-1</f>
+      <c r="V27" s="42">
+        <f>V6/U6-1</f>
         <v>0.18739798399285035</v>
       </c>
-      <c r="T27" s="42">
-        <f>T6/S6-1</f>
+      <c r="W27" s="42">
+        <f>W6/V6-1</f>
         <v>0.16416879634046588</v>
       </c>
     </row>
-    <row r="28" spans="2:23" s="47" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:26" s="47" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="S28" s="47">
-        <f>S4/R4-1</f>
+      <c r="V28" s="47">
+        <f>V4/U4-1</f>
         <v>0.31356167882175989</v>
       </c>
-      <c r="T28" s="47">
-        <f>T4/S4-1</f>
+      <c r="W28" s="47">
+        <f>W4/V4-1</f>
         <v>0.21667682035461588</v>
       </c>
     </row>
-    <row r="29" spans="2:23" s="47" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:26" s="47" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="S29" s="47">
-        <f>S5/R5-1</f>
+      <c r="V29" s="47">
+        <f>V5/U5-1</f>
         <v>-9.9649198321317023E-2</v>
       </c>
-      <c r="T29" s="47">
-        <f>T5/S5-1</f>
+      <c r="W29" s="47">
+        <f>W5/V5-1</f>
         <v>-1.0125541415280992E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="R30" s="21" t="s">
+      <c r="U30" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="S30" s="21" t="s">
+      <c r="V30" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="T30" s="21" t="s">
+      <c r="W30" s="21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B33" s="26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="2:22" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="R34" s="28">
+      <c r="U34" s="28">
         <v>1499.8</v>
       </c>
-      <c r="S34" s="28">
+      <c r="V34" s="28">
         <v>2002.2</v>
       </c>
-      <c r="T34" s="29">
+      <c r="W34" s="29">
         <v>2517.4</v>
       </c>
     </row>
-    <row r="35" spans="2:22" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:25" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="R35" s="28">
+      <c r="U35" s="28">
         <v>1394.1</v>
       </c>
-      <c r="S35" s="28">
+      <c r="V35" s="28">
         <v>1179.7</v>
       </c>
-      <c r="T35" s="29">
+      <c r="W35" s="29">
         <v>1203.3</v>
       </c>
     </row>
-    <row r="36" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R36" s="30">
-        <f t="shared" ref="R36:S36" si="4">R34+R35</f>
+      <c r="U36" s="30">
+        <f t="shared" ref="U36:V36" si="4">U34+U35</f>
         <v>2893.8999999999996</v>
       </c>
-      <c r="S36" s="30">
+      <c r="V36" s="30">
         <f t="shared" si="4"/>
         <v>3181.9</v>
       </c>
-      <c r="T36" s="30">
-        <f>T34+T35</f>
+      <c r="W36" s="30">
+        <f>W34+W35</f>
         <v>3720.7</v>
       </c>
-      <c r="V36" s="44"/>
-    </row>
-    <row r="37" spans="2:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y36" s="44"/>
+    </row>
+    <row r="37" spans="2:25" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="R37" s="35" t="s">
+      <c r="U37" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="S37" s="35" t="s">
+      <c r="V37" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="T37" s="35" t="s">
+      <c r="W37" s="35" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="2:22" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="S38" s="34">
-        <f t="shared" ref="S38" si="5">S36/R36-1</f>
+      <c r="V38" s="34">
+        <f t="shared" ref="V38" si="5">V36/U36-1</f>
         <v>9.9519679325478005E-2</v>
       </c>
-      <c r="T38" s="34">
-        <f>T36/S36-1</f>
+      <c r="W38" s="34">
+        <f>W36/V36-1</f>
         <v>0.16933278858543632</v>
       </c>
     </row>
-    <row r="39" spans="2:22" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="R39" s="28">
+      <c r="U39" s="28">
         <v>29.37</v>
       </c>
-      <c r="S39" s="28">
+      <c r="V39" s="28">
         <v>28.9</v>
       </c>
-      <c r="T39" s="31">
+      <c r="W39" s="31">
         <v>27.97</v>
       </c>
     </row>
-    <row r="40" spans="2:22" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:25" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="R40" s="28">
+      <c r="U40" s="28">
         <v>13.13</v>
       </c>
-      <c r="S40" s="28">
+      <c r="V40" s="28">
         <v>13.06</v>
       </c>
-      <c r="T40" s="31">
+      <c r="W40" s="31">
         <v>12.7</v>
       </c>
     </row>
-    <row r="41" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R41" s="2">
+      <c r="U41" s="2">
         <v>21.55</v>
       </c>
-      <c r="S41" s="2">
+      <c r="V41" s="2">
         <v>23.03</v>
       </c>
-      <c r="T41" s="32">
+      <c r="W41" s="32">
         <v>23.03</v>
       </c>
     </row>
-    <row r="42" spans="2:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="R42" s="38" t="s">
+      <c r="U42" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S42" s="38" t="s">
+      <c r="V42" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="T42" s="38" t="s">
+      <c r="W42" s="38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="2:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34">
-        <f t="shared" ref="S43" si="6">S41/R41-1</f>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34">
+        <f t="shared" ref="V43" si="6">V41/U41-1</f>
         <v>6.867749419953606E-2</v>
       </c>
-      <c r="T43" s="34">
-        <f>T41/S41-1</f>
+      <c r="W43" s="34">
+        <f>W41/V41-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:22" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="T44" s="41">
+      <c r="W44" s="41">
         <v>1200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B47" s="26" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30">
+      <c r="U48" s="30"/>
+      <c r="V48" s="30">
         <v>402.55900000000003</v>
       </c>
-      <c r="T48" s="30">
+      <c r="W48" s="30">
         <v>355.642</v>
       </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8">
+      <c r="U49" s="8"/>
+      <c r="V49" s="8">
         <v>66.930000000000007</v>
       </c>
-      <c r="T49" s="8">
+      <c r="W49" s="8">
         <v>102.67700000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8">
+      <c r="U50" s="8"/>
+      <c r="V50" s="8">
         <v>31.882000000000001</v>
       </c>
-      <c r="T50" s="8">
+      <c r="W50" s="8">
         <v>34.731999999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="R51" s="8">
-        <f t="shared" ref="R51:S51" si="7">SUM(R48:R50)</f>
+      <c r="U51" s="8">
+        <f t="shared" ref="U51:V51" si="7">SUM(U48:U50)</f>
         <v>0</v>
       </c>
-      <c r="S51" s="8">
+      <c r="V51" s="8">
         <f t="shared" si="7"/>
         <v>501.37100000000004</v>
       </c>
-      <c r="T51" s="8">
-        <f>SUM(T48:T50)</f>
+      <c r="W51" s="8">
+        <f>SUM(W48:W50)</f>
         <v>493.05100000000004</v>
       </c>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8">
+      <c r="U52" s="8"/>
+      <c r="V52" s="8">
         <v>17.419</v>
       </c>
-      <c r="T52" s="8">
+      <c r="W52" s="8">
         <v>15.425000000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8">
+      <c r="U53" s="8"/>
+      <c r="V53" s="8">
         <v>14.467000000000001</v>
       </c>
-      <c r="T53" s="8">
+      <c r="W53" s="8">
         <v>12.462</v>
       </c>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8">
+      <c r="U54" s="8"/>
+      <c r="V54" s="8">
         <f>1579.77+1524.428</f>
         <v>3104.1980000000003</v>
       </c>
-      <c r="T54" s="8">
+      <c r="W54" s="8">
         <f>1585.75+1484.29</f>
         <v>3070.04</v>
       </c>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8">
+      <c r="U55" s="8"/>
+      <c r="V55" s="8">
         <v>24.05</v>
       </c>
-      <c r="T55" s="8">
+      <c r="W55" s="8">
         <v>27.029</v>
       </c>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8">
+      <c r="U56" s="8"/>
+      <c r="V56" s="8">
         <v>31.116</v>
       </c>
-      <c r="T56" s="8">
+      <c r="W56" s="8">
         <v>7.12</v>
       </c>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R57" s="8">
-        <f t="shared" ref="R57:S57" si="8">SUM(R51:R56)</f>
+      <c r="U57" s="8">
+        <f t="shared" ref="U57:V57" si="8">SUM(U51:U56)</f>
         <v>0</v>
       </c>
-      <c r="S57" s="8">
+      <c r="V57" s="8">
         <f t="shared" si="8"/>
         <v>3692.6210000000005</v>
       </c>
-      <c r="T57" s="8">
-        <f>SUM(T51:T56)</f>
+      <c r="W57" s="8">
+        <f>SUM(W51:W56)</f>
         <v>3625.127</v>
       </c>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="R58" s="8"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="8"/>
-    </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="R59" s="8"/>
-      <c r="S59" s="8">
+      <c r="U59" s="8"/>
+      <c r="V59" s="8">
         <v>3.367</v>
       </c>
-      <c r="T59" s="8">
+      <c r="W59" s="8">
         <v>4.6109999999999998</v>
       </c>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="R60" s="8"/>
-      <c r="S60" s="8">
+      <c r="U60" s="8"/>
+      <c r="V60" s="8">
         <v>46.107999999999997</v>
       </c>
-      <c r="T60" s="8">
+      <c r="W60" s="8">
         <v>48.749000000000002</v>
       </c>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="R61" s="8"/>
-      <c r="S61" s="8">
+      <c r="U61" s="8"/>
+      <c r="V61" s="8">
         <v>156.44300000000001</v>
       </c>
-      <c r="T61" s="8">
+      <c r="W61" s="8">
         <v>185.79900000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="R62" s="30"/>
-      <c r="S62" s="30">
+      <c r="U62" s="30"/>
+      <c r="V62" s="30">
         <v>5.75</v>
       </c>
-      <c r="T62" s="30">
+      <c r="W62" s="30">
         <v>5.75</v>
       </c>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R63" s="8">
-        <f t="shared" ref="R63:S63" si="9">SUM(R59:R62)</f>
+      <c r="U63" s="8">
+        <f t="shared" ref="U63:V63" si="9">SUM(U59:U62)</f>
         <v>0</v>
       </c>
-      <c r="S63" s="8">
+      <c r="V63" s="8">
         <f t="shared" si="9"/>
         <v>211.66800000000001</v>
       </c>
-      <c r="T63" s="8">
-        <f>SUM(T59:T62)</f>
+      <c r="W63" s="8">
+        <f>SUM(W59:W62)</f>
         <v>244.90899999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30">
+      <c r="U64" s="30"/>
+      <c r="V64" s="30">
         <v>619.22299999999996</v>
       </c>
-      <c r="T64" s="30">
+      <c r="W64" s="30">
         <v>615.17600000000004</v>
       </c>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8">
+      <c r="U65" s="8"/>
+      <c r="V65" s="8">
         <v>8.077</v>
       </c>
-      <c r="T65" s="8">
+      <c r="W65" s="8">
         <v>5.673</v>
       </c>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8">
+      <c r="U66" s="8"/>
+      <c r="V66" s="8">
         <v>385.48599999999999</v>
       </c>
-      <c r="T66" s="8">
+      <c r="W66" s="8">
         <v>407.38900000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8">
+      <c r="U67" s="8"/>
+      <c r="V67" s="8">
         <v>14.587999999999999</v>
       </c>
-      <c r="T67" s="8">
+      <c r="W67" s="8">
         <v>14.707000000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="R68" s="8">
-        <f t="shared" ref="R68:S68" si="10">SUM(R63:R67)</f>
+      <c r="U68" s="8">
+        <f t="shared" ref="U68:V68" si="10">SUM(U63:U67)</f>
         <v>0</v>
       </c>
-      <c r="S68" s="8">
+      <c r="V68" s="8">
         <f t="shared" si="10"/>
         <v>1239.0419999999999</v>
       </c>
-      <c r="T68" s="8">
-        <f>SUM(T63:T67)</f>
+      <c r="W68" s="8">
+        <f>SUM(W63:W67)</f>
         <v>1287.854</v>
       </c>
     </row>
-    <row r="70" spans="2:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="S70" s="8">
+      <c r="V70" s="8">
         <v>3692.6210000000001</v>
       </c>
-      <c r="T70" s="8">
+      <c r="W70" s="8">
         <v>3625.127</v>
       </c>
     </row>
-    <row r="71" spans="2:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="S71" s="8">
-        <f t="shared" ref="S71" si="11">S70+S68</f>
+      <c r="V71" s="8">
+        <f t="shared" ref="V71" si="11">V70+V68</f>
         <v>4931.6630000000005</v>
       </c>
-      <c r="T71" s="8">
-        <f>T70+T68</f>
+      <c r="W71" s="8">
+        <f>W70+W68</f>
         <v>4912.9809999999998</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S73" s="8">
-        <f>S57-S68</f>
+      <c r="V73" s="8">
+        <f>V57-V68</f>
         <v>2453.5790000000006</v>
       </c>
-      <c r="T73" s="8">
-        <f>T57-T68</f>
+      <c r="W73" s="8">
+        <f>W57-W68</f>
         <v>2337.2730000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="S74" s="1">
-        <f>S73/S20</f>
+      <c r="V74" s="1">
+        <f>V73/V20</f>
         <v>18.958098172464961</v>
       </c>
-      <c r="T74" s="1">
-        <f>T73/T20</f>
+      <c r="W74" s="1">
+        <f>W73/W20</f>
         <v>17.321239160038331</v>
       </c>
     </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R76" s="8">
-        <f t="shared" ref="R76:S76" si="12">+R48</f>
+      <c r="U76" s="8">
+        <f t="shared" ref="U76:V76" si="12">+U48</f>
         <v>0</v>
       </c>
-      <c r="S76" s="8">
+      <c r="V76" s="8">
         <f t="shared" si="12"/>
         <v>402.55900000000003</v>
       </c>
-      <c r="T76" s="8">
-        <f>+T48</f>
+      <c r="W76" s="8">
+        <f>+W48</f>
         <v>355.642</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R77" s="8">
-        <f t="shared" ref="R77:S77" si="13">+R62+R64</f>
+      <c r="U77" s="8">
+        <f t="shared" ref="U77:V77" si="13">+U62+U64</f>
         <v>0</v>
       </c>
-      <c r="S77" s="8">
+      <c r="V77" s="8">
         <f t="shared" si="13"/>
         <v>624.97299999999996</v>
       </c>
-      <c r="T77" s="8">
-        <f>+T62+T64</f>
+      <c r="W77" s="8">
+        <f>+W62+W64</f>
         <v>620.92600000000004</v>
       </c>
     </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R78" s="8">
-        <f t="shared" ref="R78:S78" si="14">R76-R77</f>
+      <c r="U78" s="8">
+        <f t="shared" ref="U78:V78" si="14">U76-U77</f>
         <v>0</v>
       </c>
-      <c r="S78" s="8">
+      <c r="V78" s="8">
         <f t="shared" si="14"/>
         <v>-222.41399999999993</v>
       </c>
-      <c r="T78" s="8">
-        <f>T76-T77</f>
+      <c r="W78" s="8">
+        <f>W76-W77</f>
         <v>-265.28400000000005</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="R80" s="1">
+      <c r="U80" s="1">
         <v>33.86</v>
       </c>
-      <c r="S80" s="1">
+      <c r="V80" s="1">
         <v>21.05</v>
       </c>
-      <c r="T80" s="1">
+      <c r="W80" s="1">
         <v>14.74</v>
       </c>
     </row>
-    <row r="81" spans="2:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="S81" s="8">
-        <f>S80*S20</f>
+      <c r="V81" s="8">
+        <f>V80*V20</f>
         <v>2724.3153548499999</v>
       </c>
-      <c r="T81" s="8">
-        <f>T80*T20</f>
+      <c r="W81" s="8">
+        <f>W80*W20</f>
         <v>1988.9687857599999</v>
       </c>
     </row>
-    <row r="82" spans="2:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S82" s="8">
-        <f>S81-S78</f>
+      <c r="V82" s="8">
+        <f>V81-V78</f>
         <v>2946.7293548499997</v>
       </c>
-      <c r="T82" s="8">
-        <f>T81-T78</f>
+      <c r="W82" s="8">
+        <f>W81-W78</f>
         <v>2254.2527857599998</v>
       </c>
     </row>
-    <row r="84" spans="2:20" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="75" t="s">
+    <row r="84" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="S84" s="75">
-        <f>S80/S74</f>
+      <c r="V84" s="58">
+        <f>V80/V74</f>
         <v>1.1103434431294037</v>
       </c>
-      <c r="T84" s="75">
-        <f>T80/T74</f>
+      <c r="W84" s="58">
+        <f>W80/W74</f>
         <v>0.85097837769058216</v>
       </c>
     </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S85" s="75">
-        <f>S81/S6</f>
+      <c r="V85" s="58">
+        <f>V81/V6</f>
         <v>3.0152809175509105</v>
       </c>
-      <c r="T85" s="75">
-        <f>T81/T6</f>
+      <c r="W85" s="58">
+        <f>W81/W6</f>
         <v>1.8909603127501593</v>
       </c>
     </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S86" s="75">
-        <f>S82/S6</f>
+      <c r="V86" s="58">
+        <f>V82/V6</f>
         <v>3.2614494416177919</v>
       </c>
-      <c r="T86" s="75">
-        <f>T82/T6</f>
+      <c r="W86" s="58">
+        <f>W82/W6</f>
         <v>2.1431721720810395</v>
       </c>
     </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S87" s="75">
-        <f>S80/S18</f>
+      <c r="V87" s="58">
+        <f>V80/V18</f>
         <v>-0.18444849461988705</v>
       </c>
-      <c r="T87" s="75">
-        <f>T80/T18</f>
+      <c r="W87" s="58">
+        <f>W80/W18</f>
         <v>-7.890792291219805</v>
       </c>
     </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S88" s="75">
-        <f>S82/S18</f>
+      <c r="V88" s="58">
+        <f>V82/V18</f>
         <v>-25.820417746048143</v>
       </c>
-      <c r="T88" s="75">
-        <f>T82/T18</f>
+      <c r="W88" s="58">
+        <f>W82/W18</f>
         <v>-1206.7734399142319</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T1" r:id="rId1" xr:uid="{1FEA7EB2-90F5-4396-9A65-19E36DE199B0}"/>
+    <hyperlink ref="W1" r:id="rId1" xr:uid="{1FEA7EB2-90F5-4396-9A65-19E36DE199B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
